--- a/eTUFF-ObservationTypes.xlsx
+++ b/eTUFF-ObservationTypes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vtsontos\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ewchapman\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -476,9 +476,6 @@
     <t>temperature</t>
   </si>
   <si>
-    <t>internal temperature</t>
-  </si>
-  <si>
     <t>light</t>
   </si>
   <si>
@@ -875,9 +872,6 @@
     <t>angle at which the earth’s magnetic flux lines enter the earth’s surface. This value is given in degrees, from -90 to +90 with 0 being completely horizontal to the earth’s surface. +90 corresponds to the tag resting directly over the magnetic north pole while a -90 reading means the tag is over the magnetic south pole.</t>
   </si>
   <si>
-    <t>stomach temperature</t>
-  </si>
-  <si>
     <t>Stomach temperature, usually measured by an ingested logger</t>
   </si>
   <si>
@@ -1119,12 +1113,18 @@
   </si>
   <si>
     <t>CF_CanonicalUnits</t>
+  </si>
+  <si>
+    <t>internalTemperature</t>
+  </si>
+  <si>
+    <t>stomachTemperature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1603,7 +1603,7 @@
   <dimension ref="A1:H204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,16 +1633,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1653,13 +1653,13 @@
         <v>129</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1670,7 +1670,7 @@
         <v>130</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>131</v>
@@ -1679,10 +1679,10 @@
         <v>130</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1693,7 +1693,7 @@
         <v>132</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>131</v>
@@ -1702,10 +1702,10 @@
         <v>132</v>
       </c>
       <c r="F4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1713,22 +1713,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1739,7 +1739,7 @@
         <v>135</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
@@ -1751,7 +1751,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1762,19 +1762,19 @@
         <v>137</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1782,16 +1782,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>138</v>
+        <v>351</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1799,19 +1799,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1819,16 +1819,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1836,16 +1836,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1853,16 +1853,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1870,16 +1870,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1887,16 +1887,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1904,16 +1904,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1921,16 +1921,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1938,16 +1938,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1955,22 +1955,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1978,22 +1978,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F19" s="6">
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2001,16 +2001,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>131</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2018,16 +2018,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>131</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2035,16 +2035,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="G22" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2052,16 +2052,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="G23" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2069,22 +2069,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2092,19 +2092,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="G25" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2112,19 +2112,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="G26" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="H26" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2132,19 +2132,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>131</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2152,19 +2152,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>131</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2172,19 +2172,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>131</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2192,19 +2192,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>131</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2212,19 +2212,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>131</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2232,19 +2232,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>131</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -2252,19 +2252,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>131</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2272,16 +2272,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>271</v>
+        <v>352</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2289,16 +2289,16 @@
         <v>1001</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2306,16 +2306,16 @@
         <v>1002</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2326,13 +2326,13 @@
         <v>133</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>134</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2340,16 +2340,16 @@
         <v>1004</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2357,16 +2357,16 @@
         <v>1005</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2374,16 +2374,16 @@
         <v>1006</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2391,16 +2391,16 @@
         <v>1007</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2408,16 +2408,16 @@
         <v>1008</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2425,16 +2425,16 @@
         <v>1009</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2442,16 +2442,16 @@
         <v>1010</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2459,19 +2459,19 @@
         <v>1011</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2479,16 +2479,16 @@
         <v>1012</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2496,16 +2496,16 @@
         <v>1013</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2513,19 +2513,19 @@
         <v>1014</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="H48" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2533,16 +2533,16 @@
         <v>1015</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2550,16 +2550,16 @@
         <v>1016</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2567,16 +2567,16 @@
         <v>1017</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2584,16 +2584,16 @@
         <v>1018</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2601,16 +2601,16 @@
         <v>1019</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2618,16 +2618,16 @@
         <v>1020</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2635,16 +2635,16 @@
         <v>1021</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2652,16 +2652,16 @@
         <v>1022</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2669,16 +2669,16 @@
         <v>1023</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2686,16 +2686,16 @@
         <v>1024</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2703,19 +2703,19 @@
         <v>1025</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2723,19 +2723,19 @@
         <v>1026</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>307</v>
-      </c>
       <c r="G60" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2743,19 +2743,19 @@
         <v>101</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2763,19 +2763,19 @@
         <v>102</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H62" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2783,19 +2783,19 @@
         <v>103</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H63" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2803,19 +2803,19 @@
         <v>104</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2823,19 +2823,19 @@
         <v>105</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H65" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2843,19 +2843,19 @@
         <v>106</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C66" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H66" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2863,19 +2863,19 @@
         <v>107</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2883,19 +2883,19 @@
         <v>108</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H68" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2903,19 +2903,19 @@
         <v>109</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H69" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2923,19 +2923,19 @@
         <v>110</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2943,19 +2943,19 @@
         <v>111</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H71" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2963,19 +2963,19 @@
         <v>112</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H72" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2983,19 +2983,19 @@
         <v>113</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3003,19 +3003,19 @@
         <v>114</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H74" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3023,19 +3023,19 @@
         <v>115</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H75" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3043,19 +3043,19 @@
         <v>116</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3063,19 +3063,19 @@
         <v>117</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H77" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3083,19 +3083,19 @@
         <v>118</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H78" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3103,19 +3103,19 @@
         <v>119</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3123,19 +3123,19 @@
         <v>120</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H80" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3143,19 +3143,19 @@
         <v>121</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C81" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H81" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3163,19 +3163,19 @@
         <v>122</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3183,19 +3183,19 @@
         <v>123</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H83" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3206,16 +3206,16 @@
         <v>5</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H84" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3226,16 +3226,16 @@
         <v>7</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3246,16 +3246,16 @@
         <v>9</v>
       </c>
       <c r="C86" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G86" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H86" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3266,16 +3266,16 @@
         <v>10</v>
       </c>
       <c r="C87" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H87" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3286,16 +3286,16 @@
         <v>11</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3306,16 +3306,16 @@
         <v>12</v>
       </c>
       <c r="C89" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G89" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H89" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3326,16 +3326,16 @@
         <v>13</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H90" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3346,16 +3346,16 @@
         <v>14</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3366,16 +3366,16 @@
         <v>15</v>
       </c>
       <c r="C92" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G92" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H92" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3386,16 +3386,16 @@
         <v>16</v>
       </c>
       <c r="C93" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G93" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H93" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3406,16 +3406,16 @@
         <v>17</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3426,16 +3426,16 @@
         <v>18</v>
       </c>
       <c r="C95" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G95" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D95" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H95" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3446,16 +3446,16 @@
         <v>19</v>
       </c>
       <c r="C96" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G96" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H96" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3466,16 +3466,16 @@
         <v>20</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3486,16 +3486,16 @@
         <v>21</v>
       </c>
       <c r="C98" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D98" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H98" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3506,16 +3506,16 @@
         <v>22</v>
       </c>
       <c r="C99" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G99" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H99" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3526,16 +3526,16 @@
         <v>23</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3546,16 +3546,16 @@
         <v>24</v>
       </c>
       <c r="C101" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G101" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H101" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3566,16 +3566,16 @@
         <v>25</v>
       </c>
       <c r="C102" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G102" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H102" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3586,16 +3586,16 @@
         <v>26</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3606,16 +3606,16 @@
         <v>27</v>
       </c>
       <c r="C104" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G104" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H104" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3626,16 +3626,16 @@
         <v>28</v>
       </c>
       <c r="C105" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G105" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D105" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H105" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3646,16 +3646,16 @@
         <v>29</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3666,16 +3666,16 @@
         <v>30</v>
       </c>
       <c r="C107" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G107" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D107" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H107" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3686,16 +3686,16 @@
         <v>31</v>
       </c>
       <c r="C108" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G108" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D108" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H108" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3706,16 +3706,16 @@
         <v>32</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3726,16 +3726,16 @@
         <v>33</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3746,16 +3746,16 @@
         <v>34</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3766,16 +3766,16 @@
         <v>35</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3786,16 +3786,16 @@
         <v>36</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3806,16 +3806,16 @@
         <v>37</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3826,16 +3826,16 @@
         <v>38</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3846,16 +3846,16 @@
         <v>39</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3866,16 +3866,16 @@
         <v>40</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3886,16 +3886,16 @@
         <v>41</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3906,16 +3906,16 @@
         <v>42</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3926,16 +3926,16 @@
         <v>43</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3946,16 +3946,16 @@
         <v>44</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3966,16 +3966,16 @@
         <v>45</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3986,16 +3986,16 @@
         <v>46</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4006,16 +4006,16 @@
         <v>47</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4026,16 +4026,16 @@
         <v>48</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4046,16 +4046,16 @@
         <v>49</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4066,16 +4066,16 @@
         <v>50</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4086,16 +4086,16 @@
         <v>51</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4106,16 +4106,16 @@
         <v>52</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4126,16 +4126,16 @@
         <v>53</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4146,16 +4146,16 @@
         <v>54</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4166,16 +4166,16 @@
         <v>55</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4186,16 +4186,16 @@
         <v>56</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4206,16 +4206,16 @@
         <v>57</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4226,16 +4226,16 @@
         <v>58</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4246,16 +4246,16 @@
         <v>59</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4266,16 +4266,16 @@
         <v>60</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4286,16 +4286,16 @@
         <v>61</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4306,16 +4306,16 @@
         <v>62</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4326,16 +4326,16 @@
         <v>63</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4346,16 +4346,16 @@
         <v>64</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4366,16 +4366,16 @@
         <v>65</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4386,16 +4386,16 @@
         <v>66</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4406,16 +4406,16 @@
         <v>67</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4426,16 +4426,16 @@
         <v>68</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4446,16 +4446,16 @@
         <v>69</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4466,16 +4466,16 @@
         <v>70</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4486,16 +4486,16 @@
         <v>71</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4506,16 +4506,16 @@
         <v>72</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4526,16 +4526,16 @@
         <v>73</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4546,16 +4546,16 @@
         <v>74</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4566,16 +4566,16 @@
         <v>75</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4586,16 +4586,16 @@
         <v>76</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4606,16 +4606,16 @@
         <v>77</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4626,16 +4626,16 @@
         <v>78</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4646,16 +4646,16 @@
         <v>79</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4666,16 +4666,16 @@
         <v>80</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4686,16 +4686,16 @@
         <v>81</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4706,16 +4706,16 @@
         <v>82</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4726,16 +4726,16 @@
         <v>83</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4746,16 +4746,16 @@
         <v>84</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4766,16 +4766,16 @@
         <v>85</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4786,16 +4786,16 @@
         <v>86</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4806,16 +4806,16 @@
         <v>87</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4826,16 +4826,16 @@
         <v>88</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4846,16 +4846,16 @@
         <v>89</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4866,16 +4866,16 @@
         <v>90</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4886,16 +4886,16 @@
         <v>91</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4906,16 +4906,16 @@
         <v>92</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4926,16 +4926,16 @@
         <v>93</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4946,16 +4946,16 @@
         <v>94</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4966,16 +4966,16 @@
         <v>95</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4986,16 +4986,16 @@
         <v>96</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H173" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5006,16 +5006,16 @@
         <v>98</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5026,16 +5026,16 @@
         <v>99</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5046,16 +5046,16 @@
         <v>100</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5066,16 +5066,16 @@
         <v>101</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5086,16 +5086,16 @@
         <v>102</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5106,16 +5106,16 @@
         <v>103</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5126,16 +5126,16 @@
         <v>104</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5146,16 +5146,16 @@
         <v>105</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H181" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5166,16 +5166,16 @@
         <v>106</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H182" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5186,16 +5186,16 @@
         <v>107</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5206,16 +5206,16 @@
         <v>108</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5226,16 +5226,16 @@
         <v>109</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5246,16 +5246,16 @@
         <v>110</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5266,16 +5266,16 @@
         <v>111</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5286,16 +5286,16 @@
         <v>112</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5306,16 +5306,16 @@
         <v>113</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5326,16 +5326,16 @@
         <v>114</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5346,16 +5346,16 @@
         <v>115</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5366,16 +5366,16 @@
         <v>116</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5386,16 +5386,16 @@
         <v>117</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5406,16 +5406,16 @@
         <v>118</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5426,16 +5426,16 @@
         <v>119</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5446,16 +5446,16 @@
         <v>120</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5466,16 +5466,16 @@
         <v>121</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5486,16 +5486,16 @@
         <v>122</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5506,16 +5506,16 @@
         <v>123</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5526,16 +5526,16 @@
         <v>124</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5546,16 +5546,16 @@
         <v>125</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5566,16 +5566,16 @@
         <v>126</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5586,16 +5586,16 @@
         <v>127</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5606,16 +5606,16 @@
         <v>128</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -5652,197 +5652,197 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5865,13 +5865,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6730,10 +6730,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
         <v>175</v>
-      </c>
-      <c r="B1" t="s">
-        <v>176</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -7402,7 +7402,7 @@
         <v>18.45</v>
       </c>
       <c r="C53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" t="s">
         <v>6</v>
@@ -7416,7 +7416,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="C54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" t="s">
         <v>6</v>
@@ -7430,7 +7430,7 @@
         <v>21.85</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" t="s">
         <v>6</v>
@@ -7444,7 +7444,7 @@
         <v>17.8</v>
       </c>
       <c r="C56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
@@ -7458,7 +7458,7 @@
         <v>17.45</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D57" t="s">
         <v>6</v>
@@ -7472,7 +7472,7 @@
         <v>22.75</v>
       </c>
       <c r="C58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D58" t="s">
         <v>6</v>
@@ -7486,7 +7486,7 @@
         <v>22.5</v>
       </c>
       <c r="C59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D59" t="s">
         <v>6</v>
@@ -7500,7 +7500,7 @@
         <v>18.7</v>
       </c>
       <c r="C60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
@@ -7514,7 +7514,7 @@
         <v>23.05</v>
       </c>
       <c r="C61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D61" t="s">
         <v>6</v>
@@ -7528,7 +7528,7 @@
         <v>23.1</v>
       </c>
       <c r="C62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D62" t="s">
         <v>6</v>
@@ -7542,7 +7542,7 @@
         <v>18.850000000000001</v>
       </c>
       <c r="C63" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D63" t="s">
         <v>6</v>
@@ -7556,7 +7556,7 @@
         <v>17.649999999999999</v>
       </c>
       <c r="C64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
@@ -7570,7 +7570,7 @@
         <v>23.15</v>
       </c>
       <c r="C65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D65" t="s">
         <v>6</v>
@@ -7584,7 +7584,7 @@
         <v>23.25</v>
       </c>
       <c r="C66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D66" t="s">
         <v>6</v>
@@ -7598,7 +7598,7 @@
         <v>20.350000000000001</v>
       </c>
       <c r="C67" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D67" t="s">
         <v>6</v>
@@ -7612,7 +7612,7 @@
         <v>21.35</v>
       </c>
       <c r="C68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D68" t="s">
         <v>6</v>
@@ -7626,7 +7626,7 @@
         <v>104</v>
       </c>
       <c r="C69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -7640,7 +7640,7 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -7654,7 +7654,7 @@
         <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -7668,7 +7668,7 @@
         <v>104</v>
       </c>
       <c r="C72" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
@@ -7682,7 +7682,7 @@
         <v>112</v>
       </c>
       <c r="C73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -7696,7 +7696,7 @@
         <v>56</v>
       </c>
       <c r="C74" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -7710,7 +7710,7 @@
         <v>48</v>
       </c>
       <c r="C75" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
@@ -7724,7 +7724,7 @@
         <v>88</v>
       </c>
       <c r="C76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
@@ -7738,7 +7738,7 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
